--- a/data/trans_camb/P19C05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.7334508525102815</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.648262295532448</v>
+        <v>-0.6482622955324473</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.753305728162831</v>
+        <v>-2.824830729953253</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.294911330661964</v>
+        <v>-1.76397228756833</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.756383558587474</v>
+        <v>-3.682084876491631</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6138076111131201</v>
+        <v>-0.4228273310732522</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.191014088670333</v>
+        <v>-1.319324656425337</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.307071679118476</v>
+        <v>-2.284857714823903</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.8998041434642973</v>
+        <v>-0.8515264675364261</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.8244409792140306</v>
+        <v>-1.15267816328451</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.339873081938826</v>
+        <v>-2.377427341517895</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.979663589567194</v>
+        <v>2.194807472303615</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.294767001812334</v>
+        <v>3.508260735248824</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.822556111018065</v>
+        <v>2.478945995512167</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.641459034865129</v>
+        <v>4.545368124521288</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.121704956187291</v>
+        <v>3.255388803088795</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.969649962818741</v>
+        <v>2.832164045296664</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.545883969520361</v>
+        <v>2.615119199795381</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.637726669021777</v>
+        <v>2.585213471539904</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.000838964740804</v>
+        <v>1.708551135781263</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.2762127036637483</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2441312607647085</v>
+        <v>-0.2441312607647082</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6373902124844657</v>
+        <v>-0.6247302140786815</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5255027617721479</v>
+        <v>-0.4233248684625829</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9110998091541286</v>
+        <v>-0.9201740420082585</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2535981305636872</v>
+        <v>-0.2340155826877357</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4367497059362092</v>
+        <v>-0.4774895643276732</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9632412572882413</v>
+        <v>-0.8523084307828493</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2901747666096116</v>
+        <v>-0.2692943480786426</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2617050561176795</v>
+        <v>-0.3476494021235924</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7487666132527354</v>
+        <v>-0.7490270479413287</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.059304021876286</v>
+        <v>1.206556437574353</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.704275999350534</v>
+        <v>1.828248375835777</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.594650555150884</v>
+        <v>1.329456770948145</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.839385674527489</v>
+        <v>3.796919409007015</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.917339558236055</v>
+        <v>2.872595120571541</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.824730965328226</v>
+        <v>2.718822139159267</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.362592457952718</v>
+        <v>1.495823254633295</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.439427937381741</v>
+        <v>1.397385823348143</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.306825621702989</v>
+        <v>0.9834762281891838</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.175712500491301</v>
+        <v>-2.059499485890032</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.294027403449612</v>
+        <v>-1.438544463416492</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.569362626248495</v>
+        <v>-1.667271861236943</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2804820480901791</v>
+        <v>-0.1023022831980361</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.429368593990413</v>
+        <v>-2.420939037440854</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.17689493351953</v>
+        <v>-2.132246046602763</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.5221729484160399</v>
+        <v>-0.5732213922744642</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.283136614391537</v>
+        <v>-1.38447433155527</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.321965691429495</v>
+        <v>-1.290491212633129</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.328479028545967</v>
+        <v>2.262761957949102</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.596405463071416</v>
+        <v>3.42427942684423</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.346431459725544</v>
+        <v>4.446537834884976</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.907174062636103</v>
+        <v>4.999450572976954</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.134078226504392</v>
+        <v>1.934391743381275</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.803312370027733</v>
+        <v>2.793406790752415</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.896696036490529</v>
+        <v>3.006128174980163</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.95967525783846</v>
+        <v>2.119749841299321</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.692020821021239</v>
+        <v>2.679355352983922</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4526321825424267</v>
+        <v>-0.450806571572023</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3441567313714897</v>
+        <v>-0.3606424397623152</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3993348348177849</v>
+        <v>-0.4158078171682781</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1013311428107771</v>
+        <v>-0.03778241254989666</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4993831271498123</v>
+        <v>-0.5153546933747163</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4700142057746263</v>
+        <v>-0.4607745721490867</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.13990172858204</v>
+        <v>-0.1623412466724585</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3001238109171389</v>
+        <v>-0.3150507114083857</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3312811084937744</v>
+        <v>-0.3094982623943399</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.01130508116911</v>
+        <v>1.0920906375061</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.478130325406428</v>
+        <v>1.448789802920541</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.923419870520164</v>
+        <v>1.907245377381277</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.677009687571399</v>
+        <v>1.8151999364415</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8386774807811298</v>
+        <v>0.7610969445093543</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.043829225678404</v>
+        <v>1.050603845067676</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.019360533366913</v>
+        <v>1.068942734711101</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7014258567411675</v>
+        <v>0.7813776732150908</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9300390581743835</v>
+        <v>0.9678538747835763</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-2.207446189671133</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-3.374263948454964</v>
+        <v>-3.374263948454966</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.229293107371898</v>
+        <v>-2.196112667994984</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.590416144403129</v>
+        <v>-5.320549798425078</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.755206148857654</v>
+        <v>-5.719859319306495</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.109867946999461</v>
+        <v>-4.218348462635214</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.702975219844792</v>
+        <v>-4.873390324322556</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.682789427207918</v>
+        <v>-6.418841538878952</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.516612059460647</v>
+        <v>-2.43203550865889</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.3612774355816</v>
+        <v>-4.286087569015726</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-5.723222453135913</v>
+        <v>-5.422018243003027</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.981129424619625</v>
+        <v>4.594011359775947</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09681401107095029</v>
+        <v>0.3722870287698077</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.4101300540967727</v>
+        <v>-0.07255598974165398</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.23424966297926</v>
+        <v>2.125341326080398</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.245667660697455</v>
+        <v>1.388014353168242</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-1.343770415396326</v>
+        <v>-1.10187676529348</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.040436837051161</v>
+        <v>2.302290908021901</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.1751668120456101</v>
+        <v>-0.1410744898639004</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.633693168956916</v>
+        <v>-1.452872677436005</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.3795213642662179</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.4284384406772204</v>
+        <v>-0.4284384406772205</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1319886746994196</v>
@@ -1197,7 +1197,7 @@
         <v>-0.2896863380628292</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.4428095105824379</v>
+        <v>-0.4428095105824382</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2800041537994087</v>
+        <v>-0.2929537625832436</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6501673952491057</v>
+        <v>-0.6334502345870527</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6699255027533245</v>
+        <v>-0.6699289808143585</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4247293698652783</v>
+        <v>-0.4124093024086906</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4819535110498812</v>
+        <v>-0.4866050764016729</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.630360143300276</v>
+        <v>-0.6336029464556092</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3046304897918174</v>
+        <v>-0.2855712305533231</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4972700202269956</v>
+        <v>-0.4868513154767422</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6171363635323073</v>
+        <v>-0.6175236424522893</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7567035209621827</v>
+        <v>0.9123322804888488</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.04339249442090762</v>
+        <v>0.0846400297714209</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.02639174856847348</v>
+        <v>0.01031297112485246</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3351845357452246</v>
+        <v>0.3073774864828195</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1937924426880698</v>
+        <v>0.2137316626347537</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1803991385472508</v>
+        <v>-0.1610988081284632</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3176275099725033</v>
+        <v>0.3661877850379967</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.03471923726731926</v>
+        <v>-0.01681868328408293</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2474369836359557</v>
+        <v>-0.2338002035594778</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-3.172555414688215</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-5.590093818200001</v>
+        <v>-5.5900938182</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.944787518745654</v>
+        <v>-3.764683710527308</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.851865330636714</v>
+        <v>-7.708691426116775</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.698032152073562</v>
+        <v>-9.922240683589058</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.856316743999026</v>
+        <v>-1.747997459827659</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.947389926348927</v>
+        <v>-6.796920468943219</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.969442655415047</v>
+        <v>-9.348792689625876</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.372309628510474</v>
+        <v>-1.473101982719579</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.004954623057968</v>
+        <v>-6.226668711276514</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-8.301408795234272</v>
+        <v>-8.269272407501765</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.063760467053732</v>
+        <v>6.320337375530234</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.421007956467441</v>
+        <v>1.608635362615976</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.463770767900144</v>
+        <v>-1.619903419524718</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.947174328562693</v>
+        <v>7.263565595756854</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8602381955237495</v>
+        <v>0.937882710635508</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-2.34165769480626</v>
+        <v>-2.438050214404617</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.075075227042886</v>
+        <v>4.996989568028027</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.04216339544238042</v>
+        <v>-0.1146525142669543</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-2.88628294845945</v>
+        <v>-2.869355292111486</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.2470035893546525</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.4352243089378318</v>
+        <v>-0.4352243089378317</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2505976749532461</v>
+        <v>-0.242334955830626</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4883155661686228</v>
+        <v>-0.4823396422101855</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6135589555566124</v>
+        <v>-0.6060082380319258</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1261451228987333</v>
+        <v>-0.1091095121333595</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4701674436121361</v>
+        <v>-0.4662856605284793</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5961284234494295</v>
+        <v>-0.6136173039046154</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.09768984005702011</v>
+        <v>-0.1104475697923679</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4081841878505424</v>
+        <v>-0.4301582022821895</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5545749664273972</v>
+        <v>-0.5681902935438242</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.590134793201782</v>
+        <v>0.6326691163432669</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1485657717168447</v>
+        <v>0.1619750613120838</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1430827537773121</v>
+        <v>-0.1324300258436937</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7061650633433884</v>
+        <v>0.7496613282216401</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08662859874575451</v>
+        <v>0.1043903647368464</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2246645453023099</v>
+        <v>-0.2386441601961872</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4469988432350687</v>
+        <v>0.4514960649978039</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.007756008226578718</v>
+        <v>-0.01015717217298187</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2664948651823442</v>
+        <v>-0.2620437523670978</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.88258426761131</v>
+        <v>-6.919085489420141</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-14.9438928341702</v>
+        <v>-15.41529822796229</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-20.65717467613548</v>
+        <v>-20.02248322254072</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.454119240881137</v>
+        <v>-6.929187657251536</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-12.89092975592443</v>
+        <v>-12.54834221185345</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-19.53642798832574</v>
+        <v>-19.47861147015328</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-5.273676764108003</v>
+        <v>-4.876019453453114</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-12.21866804726957</v>
+        <v>-12.36905525275666</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-17.90409950820424</v>
+        <v>-17.71952500611488</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.291328303958597</v>
+        <v>7.476146221316049</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.752089751772225</v>
+        <v>-1.739762518001104</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-9.230764571995632</v>
+        <v>-8.397143020190926</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.102945153288237</v>
+        <v>6.093481479345112</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.2917942100041933</v>
+        <v>-0.2257776180828486</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-9.136650759171602</v>
+        <v>-8.848757945651824</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.469979832376432</v>
+        <v>4.494586257584643</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-3.900480969108698</v>
+        <v>-3.311057463168949</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-10.43429314932948</v>
+        <v>-9.979819704626342</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.3371554635608552</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.5466088370769283</v>
+        <v>-0.5466088370769284</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.003569024180320697</v>
@@ -1625,7 +1625,7 @@
         <v>-0.3079661214536225</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.5619946363816065</v>
+        <v>-0.5619946363816064</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2330122691563111</v>
+        <v>-0.2344497429087598</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5114015163990149</v>
+        <v>-0.5128065358209846</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6645028179484554</v>
+        <v>-0.65806276301994</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2295797742362707</v>
+        <v>-0.2512115292515853</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4682824079202135</v>
+        <v>-0.4604969196818213</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6856105033709492</v>
+        <v>-0.6739301362363848</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1877971548364371</v>
+        <v>-0.17453679617109</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4493179156335269</v>
+        <v>-0.4454520839267144</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6395918076715807</v>
+        <v>-0.6357295942070023</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3214593032868688</v>
+        <v>0.3372180962987663</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.08102571405214241</v>
+        <v>-0.07951999501379881</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.4095879394208383</v>
+        <v>-0.3856037168754043</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3337805075340831</v>
+        <v>0.2890387801083998</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.0153783166966178</v>
+        <v>-0.005953784338958607</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.4532541470803867</v>
+        <v>-0.4195618824188784</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1946909118722059</v>
+        <v>0.1934704758047227</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1686648858514778</v>
+        <v>-0.1447689542290596</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.4659825413245746</v>
+        <v>-0.4505102686747638</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.508524153820694</v>
+        <v>-7.709158987868991</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-22.39081817046901</v>
+        <v>-22.59578923419922</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-27.87169572416526</v>
+        <v>-28.14883674340961</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-7.325933083907889</v>
+        <v>-7.791397235157281</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-22.12563138008557</v>
+        <v>-21.54595835338256</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-25.84963733022832</v>
+        <v>-25.71312384950947</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-4.949934853309326</v>
+        <v>-5.009950735258574</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-19.52428620462349</v>
+        <v>-20.07540719092426</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-25.15025554703894</v>
+        <v>-24.60834470724398</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.60797800122798</v>
+        <v>10.75256241163559</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-5.205537451658056</v>
+        <v>-4.015399756386113</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-13.38279233369414</v>
+        <v>-14.21856498753489</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.699249347919354</v>
+        <v>8.979568162725915</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-5.811626650536861</v>
+        <v>-5.54179979558378</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-12.30457069914861</v>
+        <v>-12.02745600996612</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.817374097912222</v>
+        <v>6.895014979852941</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-7.670206818176324</v>
+        <v>-7.987691457440141</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-14.90940363003055</v>
+        <v>-15.24073513203926</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.179001798799782</v>
+        <v>-0.1834248400362355</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5121415615679559</v>
+        <v>-0.5340970066978754</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.634520725018302</v>
+        <v>-0.6345164812118769</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.164551917812841</v>
+        <v>-0.1732155093550427</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4830850349659271</v>
+        <v>-0.4826164678199454</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5484895100499018</v>
+        <v>-0.5537559917977029</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1123884595745991</v>
+        <v>-0.1137086837992388</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4564029479948021</v>
+        <v>-0.4637150175615229</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.5627758756621704</v>
+        <v>-0.5608803404714475</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3185989587943124</v>
+        <v>0.3239829255369251</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.1461854679218096</v>
+        <v>-0.1277080770181954</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.4027789783530455</v>
+        <v>-0.4178119890801292</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2579885251554985</v>
+        <v>0.2380804846678237</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1477373620603358</v>
+        <v>-0.1598887260434307</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.3285854218239084</v>
+        <v>-0.3346079419576761</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1850287234160743</v>
+        <v>0.1858115744431333</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.2044994202752325</v>
+        <v>-0.2135591347721969</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.4064190471588224</v>
+        <v>-0.4088449598241686</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-16.26015994935193</v>
+        <v>-15.33842177542596</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-25.12335035803892</v>
+        <v>-25.29623292587279</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-23.15194193045615</v>
+        <v>-24.31496762114736</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-15.32010021202455</v>
+        <v>-15.31282000598413</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-39.83577156381212</v>
+        <v>-39.63255217218803</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-28.91003032998463</v>
+        <v>-28.80053066593234</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-12.24366453839143</v>
+        <v>-12.42487699173935</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-31.22989178334031</v>
+        <v>-30.71725339712846</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-24.67283036019809</v>
+        <v>-24.68893830584843</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>7.731744953109806</v>
+        <v>7.463562793045314</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-2.743315315819767</v>
+        <v>-2.784636712884118</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-3.359035253582274</v>
+        <v>-3.793745266674548</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.31314463586378</v>
+        <v>3.288085365168243</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-19.6099884459494</v>
+        <v>-19.54202844407047</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-13.82962284410822</v>
+        <v>-13.77841618619956</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.634407382951985</v>
+        <v>1.90837847097322</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-16.57051568036736</v>
+        <v>-16.11935766176907</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-12.98275637478988</v>
+        <v>-12.60006502858189</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2984331833566041</v>
+        <v>-0.2809928526828862</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4467668367976705</v>
+        <v>-0.4559093577411703</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4071209330783543</v>
+        <v>-0.4174782801060948</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2308636210896537</v>
+        <v>-0.2299749289126783</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6183253351609566</v>
+        <v>-0.6098165659949271</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.4351750180961715</v>
+        <v>-0.4393021998126344</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2010094465815679</v>
+        <v>-0.2037995572954619</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.5160879078326294</v>
+        <v>-0.5195597858839469</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.402860138637804</v>
+        <v>-0.4061661514977123</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1864233022003684</v>
+        <v>0.1655626375957627</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.05885394579707632</v>
+        <v>-0.06271159270946849</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.08544290239762888</v>
+        <v>-0.08799650933829516</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.05964224555986482</v>
+        <v>0.06308834015342486</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.3448504585327621</v>
+        <v>-0.346759818028281</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.250622425407726</v>
+        <v>-0.2560604590823463</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.03159753214582121</v>
+        <v>0.03794413053749536</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.3079075695285671</v>
+        <v>-0.3012724800648804</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.2490951194716506</v>
+        <v>-0.2447592460465652</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-2.943121830219048</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-3.222131948542466</v>
+        <v>-3.222131948542463</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>2.099990169561461</v>
@@ -2162,7 +2162,7 @@
         <v>-3.773344243290153</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-3.686310056444345</v>
+        <v>-3.686310056444343</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.5997490917088869</v>
+        <v>-0.4939251958252591</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.640777391337469</v>
+        <v>-4.711588236716109</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.94411589485164</v>
+        <v>-4.870241963331526</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.01324393167449187</v>
+        <v>0.07263834672989408</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-6.299766986532764</v>
+        <v>-6.320563881317834</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-5.703055295794117</v>
+        <v>-5.817366852432634</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.5187726227143941</v>
+        <v>0.3253226008185416</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-5.139609574554042</v>
+        <v>-5.062301575753138</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-4.778791259759657</v>
+        <v>-4.844478864659163</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.452623990340822</v>
+        <v>3.331846078388609</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.9069342716405002</v>
+        <v>-1.158572905630521</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-1.522156343907222</v>
+        <v>-1.528044300255806</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.028284240483909</v>
+        <v>3.936531101314138</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-2.503412937691024</v>
+        <v>-2.613881188058371</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-2.452069943410273</v>
+        <v>-2.626051140878374</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.149959040294117</v>
+        <v>3.06229085505321</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-2.585399190797043</v>
+        <v>-2.360021585237063</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-2.522609130778654</v>
+        <v>-2.583477578886113</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.2165313802265253</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.2370587146363412</v>
+        <v>-0.237058714636341</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.1301598446214244</v>
@@ -2258,7 +2258,7 @@
         <v>-0.2788971442786082</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.2519880283288629</v>
+        <v>-0.2519880283288628</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.1168461068219988</v>
@@ -2267,7 +2267,7 @@
         <v>-0.2526843499181399</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.246856051330516</v>
+        <v>-0.2468560513305159</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.0419414319453067</v>
+        <v>-0.03686085973869898</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3256034781956105</v>
+        <v>-0.325717103103029</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3411521087322494</v>
+        <v>-0.3328166640952088</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.0005661697928384188</v>
+        <v>0.003845386511009168</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3691416805238953</v>
+        <v>-0.3684535450994642</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3297917662108486</v>
+        <v>-0.3409173647792048</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03094505039443382</v>
+        <v>0.02171504758329745</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.3304034181044475</v>
+        <v>-0.3246287920798023</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3049914876734451</v>
+        <v>-0.3066772562083208</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2712276718968802</v>
+        <v>0.2582628017085479</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.07667775064628281</v>
+        <v>-0.0948357729166855</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.1252149986371976</v>
+        <v>-0.1218344708510655</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2679429712914093</v>
+        <v>0.2554524615728237</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.1664488778885224</v>
+        <v>-0.1678645060254102</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.16416605299152</v>
+        <v>-0.1737729201002098</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2212525877202754</v>
+        <v>0.2177721052961567</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.1789447651538925</v>
+        <v>-0.1646922608429473</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.1751561077281219</v>
+        <v>-0.179441234814034</v>
       </c>
     </row>
     <row r="52">
